--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>11.68261795513889</v>
+        <v>17.30158183283334</v>
       </c>
       <c r="R2">
-        <v>105.14356159625</v>
+        <v>155.7142364955</v>
       </c>
       <c r="S2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="T2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
         <v>2.413606731986111</v>
@@ -635,10 +635,10 @@
         <v>21.722460587875</v>
       </c>
       <c r="S3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="T3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>9.16961080011111</v>
+        <v>10.43687082141667</v>
       </c>
       <c r="R4">
-        <v>82.52649720100001</v>
+        <v>93.93183739275001</v>
       </c>
       <c r="S4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="T4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>2.684670081333333</v>
+        <v>2.636267762138889</v>
       </c>
       <c r="R5">
-        <v>24.162030732</v>
+        <v>23.72640985925</v>
       </c>
       <c r="S5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="T5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
     </row>
   </sheetData>
